--- a/北京二手房成交记录0425.xlsx
+++ b/北京二手房成交记录0425.xlsx
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -988,6 +989,24 @@
       <c r="A27" s="7">
         <v>20160425</v>
       </c>
+      <c r="B27" s="5">
+        <v>44341</v>
+      </c>
+      <c r="C27" s="5">
+        <v>85688</v>
+      </c>
+      <c r="D27" s="5">
+        <v>35003</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>207</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10624</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
@@ -1025,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1447,6 +1466,24 @@
       <c r="A27" s="5">
         <v>20160425</v>
       </c>
+      <c r="B27" s="5">
+        <v>71591</v>
+      </c>
+      <c r="C27" s="5">
+        <v>168</v>
+      </c>
+      <c r="D27" s="5">
+        <v>76</v>
+      </c>
+      <c r="E27" s="5">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1287</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
@@ -1484,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="A1:M32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2260,7 +2297,7 @@
         <v>20160419</v>
       </c>
       <c r="J21" s="6" t="e">
-        <f t="shared" ref="J19:M26" si="1">C21/B21</f>
+        <f t="shared" ref="J21:M26" si="1">C21/B21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="6" t="e">
@@ -2364,21 +2401,45 @@
       <c r="A26" s="5">
         <v>20160424</v>
       </c>
-      <c r="J26" s="6" t="e">
+      <c r="B26" s="13">
+        <v>145</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13720.8</v>
+      </c>
+      <c r="D26" s="5">
+        <v>120</v>
+      </c>
+      <c r="E26" s="13">
+        <v>11654.35</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="6" t="e">
+        <v>94.626206896551722</v>
+      </c>
+      <c r="K26" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="6" t="e">
+        <v>8.745845723281442E-3</v>
+      </c>
+      <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="6" t="e">
+        <v>97.119583333333338</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
